--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/16.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/16.xlsx
@@ -479,13 +479,13 @@
         <v>-13.99543309868787</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.46791417403264</v>
+        <v>-10.29932459033974</v>
       </c>
       <c r="F2" t="n">
-        <v>2.657080147889213</v>
+        <v>2.66805149767058</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.53823575706211</v>
+        <v>-15.20105658967629</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.88204600687581</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.96519911286993</v>
+        <v>-10.79643932924008</v>
       </c>
       <c r="F3" t="n">
-        <v>2.535321731461161</v>
+        <v>2.559987630014973</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.13575218310176</v>
+        <v>-14.83271774152717</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.69775807311079</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.27386324466646</v>
+        <v>-11.14218086268438</v>
       </c>
       <c r="F4" t="n">
-        <v>2.675671217924465</v>
+        <v>2.721546647081873</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.62804577120247</v>
+        <v>-14.33867969379464</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.46747943340798</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.81274242963191</v>
+        <v>-11.7219996786359</v>
       </c>
       <c r="F5" t="n">
-        <v>2.733277350428059</v>
+        <v>2.787505668798488</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.02742328603544</v>
+        <v>-13.75590201740089</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.20633928197221</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.53150985564267</v>
+        <v>-12.43981136653922</v>
       </c>
       <c r="F6" t="n">
-        <v>2.763023062484461</v>
+        <v>2.814240151201293</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.54946258619255</v>
+        <v>-13.26585712203508</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.94150605848791</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.859877903216</v>
+        <v>-12.81715771904345</v>
       </c>
       <c r="F7" t="n">
-        <v>2.981428858490135</v>
+        <v>3.022643427835889</v>
       </c>
       <c r="G7" t="n">
-        <v>-12.89199332208675</v>
+        <v>-12.55482724700378</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.68706620551309</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.65573280835884</v>
+        <v>-13.61625951529104</v>
       </c>
       <c r="F8" t="n">
-        <v>3.108921703562864</v>
+        <v>3.156027809187394</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.59331861735845</v>
+        <v>-12.22173287810459</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.46055493869678</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.27810160854597</v>
+        <v>-14.25351426380921</v>
       </c>
       <c r="F9" t="n">
-        <v>3.274591703722065</v>
+        <v>3.315989565307603</v>
       </c>
       <c r="G9" t="n">
-        <v>-11.97685444575294</v>
+        <v>-11.5837842375358</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.26986877902752</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.26163467492496</v>
+        <v>-15.22724119535975</v>
       </c>
       <c r="F10" t="n">
-        <v>3.463435079911122</v>
+        <v>3.509886570393566</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.64705933716986</v>
+        <v>-11.21983131083866</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-12.12226349086773</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.12659075446643</v>
+        <v>-16.1193638032978</v>
       </c>
       <c r="F11" t="n">
-        <v>3.63703901559241</v>
+        <v>3.708444435291184</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.1855818466047</v>
+        <v>-10.79159517718864</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.02075783343862</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.93607474686752</v>
+        <v>-16.96720824302514</v>
       </c>
       <c r="F12" t="n">
-        <v>3.684118936611257</v>
+        <v>3.753639064700822</v>
       </c>
       <c r="G12" t="n">
-        <v>-10.94075578346442</v>
+        <v>-10.53895300925185</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.96172576708202</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.55835190093476</v>
+        <v>-17.5981525015736</v>
       </c>
       <c r="F13" t="n">
-        <v>3.549896647877881</v>
+        <v>3.601585059497015</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.37759037672758</v>
+        <v>-10.00165799293026</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-11.94177351150399</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.5241448969632</v>
+        <v>-18.59807713111043</v>
       </c>
       <c r="F14" t="n">
-        <v>3.79883369411046</v>
+        <v>3.8405457709642</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.80752532639314</v>
+        <v>-9.402109076596251</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-11.94452781174465</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.36037646406993</v>
+        <v>-19.44902444661126</v>
       </c>
       <c r="F15" t="n">
-        <v>3.840676693992617</v>
+        <v>3.882153109395205</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.332431840872585</v>
+        <v>-8.942281216189148</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.95654030592633</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.34629232956611</v>
+        <v>-20.38771637575734</v>
       </c>
       <c r="F16" t="n">
-        <v>4.051148554476205</v>
+        <v>4.070603716499011</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.809080127077427</v>
+        <v>-8.422582254886832</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-11.95258587001332</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.30155911410981</v>
+        <v>-21.31927299985467</v>
       </c>
       <c r="F17" t="n">
-        <v>4.251958295462599</v>
+        <v>4.29382747995044</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.445794907825212</v>
+        <v>-8.056050144529868</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-11.91829454564072</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.06811344549288</v>
+        <v>-22.06854549148665</v>
       </c>
       <c r="F18" t="n">
-        <v>4.506996354819424</v>
+        <v>4.524330563781869</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.964613501483254</v>
+        <v>-7.587018395225032</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.83191188355131</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.79309971535346</v>
+        <v>-22.82606613390892</v>
       </c>
       <c r="F19" t="n">
-        <v>4.709324802935458</v>
+        <v>4.727182704011573</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.411110214243601</v>
+        <v>-7.001164027663474</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-11.68904712957646</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.48556470495519</v>
+        <v>-23.53031419606821</v>
       </c>
       <c r="F20" t="n">
-        <v>4.822101899614086</v>
+        <v>4.855094502775236</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.709140212778774</v>
+        <v>-6.28366655502836</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-11.48261186292462</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.1635888845225</v>
+        <v>-24.18091000118211</v>
       </c>
       <c r="F21" t="n">
-        <v>4.882378861897394</v>
+        <v>4.909715590230918</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.57311118625324</v>
+        <v>-6.160193046928041</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.22489146879074</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.88958326170189</v>
+        <v>-24.91758769748035</v>
       </c>
       <c r="F22" t="n">
-        <v>5.204266219564071</v>
+        <v>5.242705220707379</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.428022286161232</v>
+        <v>-6.051081795045096</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.92439317776183</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.40514505530622</v>
+        <v>-25.38906770741659</v>
       </c>
       <c r="F23" t="n">
-        <v>5.205418342214142</v>
+        <v>5.222569258936804</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.12286689152628</v>
+        <v>-5.758089149750109</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.60220997800955</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.84932761381747</v>
+        <v>-25.83215051248912</v>
       </c>
       <c r="F24" t="n">
-        <v>5.137102705986016</v>
+        <v>5.197746252748891</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.837611797210753</v>
+        <v>-5.485625235310947</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.26975363636592</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.17498555470256</v>
+        <v>-26.15776917646569</v>
       </c>
       <c r="F25" t="n">
-        <v>5.246187773263277</v>
+        <v>5.325212913215936</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.581500169020908</v>
+        <v>-5.295917767134337</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.943921146828252</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.48222262548935</v>
+        <v>-26.43382038188349</v>
       </c>
       <c r="F26" t="n">
-        <v>5.249539402790759</v>
+        <v>5.355927455682625</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.348090593958616</v>
+        <v>-5.094950918513842</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-9.632086247090491</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.25966656948284</v>
+        <v>-26.23217273351522</v>
       </c>
       <c r="F27" t="n">
-        <v>5.363206776062625</v>
+        <v>5.454695788320606</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.928416826367086</v>
+        <v>-4.725826532194217</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-9.34420033449609</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.40897119108989</v>
+        <v>-26.35298850413867</v>
       </c>
       <c r="F28" t="n">
-        <v>5.163156388641051</v>
+        <v>5.223564273952775</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.756527982358064</v>
+        <v>-4.595924703398611</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.083814441961833</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.546689124682</v>
+        <v>-26.51058055344452</v>
       </c>
       <c r="F29" t="n">
-        <v>5.198584160130761</v>
+        <v>5.240558083041335</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.72349610228839</v>
+        <v>-4.566152806736526</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.85547849633029</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.57651339055546</v>
+        <v>-26.4999365112342</v>
       </c>
       <c r="F30" t="n">
-        <v>5.180307305363712</v>
+        <v>5.229167779569034</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.732660714277598</v>
+        <v>-4.594065596395086</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.662228270198817</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.21765336966374</v>
+        <v>-26.14957339488677</v>
       </c>
       <c r="F31" t="n">
-        <v>5.039067542307171</v>
+        <v>5.091436753674075</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.932200501888345</v>
+        <v>-4.787740032332739</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-8.505984571062131</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.88736075357268</v>
+        <v>-25.80120030857128</v>
       </c>
       <c r="F32" t="n">
-        <v>5.055616213099112</v>
+        <v>5.084942971464579</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.024147744745787</v>
+        <v>-4.87937305992198</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.389858831671809</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.70639894369434</v>
+        <v>-25.60239368991967</v>
       </c>
       <c r="F33" t="n">
-        <v>4.95381046620185</v>
+        <v>4.980492579393289</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.073400988036361</v>
+        <v>-4.919684260371655</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.313597512421008</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.21329044946357</v>
+        <v>-25.11359256332383</v>
       </c>
       <c r="F34" t="n">
-        <v>5.003011340281057</v>
+        <v>5.0380725272912</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.291832968647719</v>
+        <v>-5.130234674672294</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.28027192025379</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.8911543380429</v>
+        <v>-24.83120468333064</v>
       </c>
       <c r="F35" t="n">
-        <v>4.846505952111064</v>
+        <v>4.88106963161322</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.393586346333613</v>
+        <v>-5.235653897153872</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.287449204831395</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.37766112828756</v>
+        <v>-24.34359495629339</v>
       </c>
       <c r="F36" t="n">
-        <v>4.978423995544296</v>
+        <v>4.968264368539116</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.43436886968559</v>
+        <v>-5.308512562468078</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.336177909530161</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.81100007669198</v>
+        <v>-23.75937712658705</v>
       </c>
       <c r="F37" t="n">
-        <v>4.951401482478973</v>
+        <v>4.944226900521707</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.532273110336018</v>
+        <v>-5.425243534604907</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.419297814059052</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.21907088061186</v>
+        <v>-23.18228150962661</v>
       </c>
       <c r="F38" t="n">
-        <v>4.773843671339484</v>
+        <v>4.770806257080204</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.554320548321485</v>
+        <v>-5.436961145648252</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.533938355290561</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.10455250765528</v>
+        <v>-23.05895201685755</v>
       </c>
       <c r="F39" t="n">
-        <v>4.920084694081565</v>
+        <v>4.903902607769191</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.550144103714974</v>
+        <v>-5.408105710185088</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.669396117350866</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.3904852183647</v>
+        <v>-22.35873638397351</v>
       </c>
       <c r="F40" t="n">
-        <v>5.082874387615586</v>
+        <v>5.071065130452349</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.602290745933569</v>
+        <v>-5.460854598334402</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.821802872939514</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.88542345163943</v>
+        <v>-21.87458302488648</v>
       </c>
       <c r="F41" t="n">
-        <v>5.059831934614149</v>
+        <v>5.060460365150552</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.665827691624465</v>
+        <v>-5.526512497085658</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.97987230685596</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.06780913917364</v>
+        <v>-21.06147246459824</v>
       </c>
       <c r="F42" t="n">
-        <v>5.175279861072489</v>
+        <v>5.15716011393954</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.885307056463161</v>
+        <v>-5.739720648863167</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.141264565781221</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.57280226103082</v>
+        <v>-20.5402286115606</v>
       </c>
       <c r="F43" t="n">
-        <v>5.182978135143424</v>
+        <v>5.17483472277587</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.998057968536106</v>
+        <v>-5.883775257030679</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.296159934169411</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.92743028475077</v>
+        <v>-19.93507618961034</v>
       </c>
       <c r="F44" t="n">
-        <v>5.052055106726163</v>
+        <v>5.03299271378861</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.006227565509343</v>
+        <v>-5.874060768322119</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.444789295821025</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.39779426559159</v>
+        <v>-19.3860635622454</v>
       </c>
       <c r="F45" t="n">
-        <v>4.98528436223336</v>
+        <v>4.986986361602785</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.985751203864884</v>
+        <v>-5.839693473362588</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.579607030646358</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.74120218577618</v>
+        <v>-18.72847646741402</v>
       </c>
       <c r="F46" t="n">
-        <v>5.191619055018963</v>
+        <v>5.167791063847021</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.166176229326711</v>
+        <v>-5.977031730172294</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.702453070006268</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.37338702974073</v>
+        <v>-18.37554725970961</v>
       </c>
       <c r="F47" t="n">
-        <v>5.202904620068531</v>
+        <v>5.167345925550403</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.379934257823572</v>
+        <v>-6.168663766866638</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.806987076078448</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.76289294823104</v>
+        <v>-17.78229574104248</v>
       </c>
       <c r="F48" t="n">
-        <v>5.10217244200429</v>
+        <v>5.05590424376163</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.520309928892559</v>
+        <v>-6.289859214272497</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.895303743030814</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.26145774939294</v>
+        <v>-17.22855679235168</v>
       </c>
       <c r="F49" t="n">
-        <v>5.11597172919947</v>
+        <v>5.092196107238895</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.811744590149381</v>
+        <v>-6.565530742907881</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.962990840419355</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.66365010933688</v>
+        <v>-16.6646582166557</v>
       </c>
       <c r="F50" t="n">
-        <v>4.985467654473144</v>
+        <v>4.94045631730329</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.993033707598762</v>
+        <v>-6.721617177386939</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.01261918866639</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.90442746754519</v>
+        <v>-15.92809835108303</v>
       </c>
       <c r="F51" t="n">
-        <v>4.9243004155966</v>
+        <v>4.889501074643293</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.039013875178904</v>
+        <v>-6.737642156065212</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.04238201238519</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.42619182934262</v>
+        <v>-15.4543010035438</v>
       </c>
       <c r="F52" t="n">
-        <v>4.831554542265812</v>
+        <v>4.792172895317901</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.272632927086664</v>
+        <v>-6.992195800216892</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.05420879288244</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.84256315326415</v>
+        <v>-14.86241108437221</v>
       </c>
       <c r="F53" t="n">
-        <v>4.790051942257541</v>
+        <v>4.756718939222506</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.518689666694064</v>
+        <v>-7.22042082335386</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-10.04876618299149</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.14971848688001</v>
+        <v>-14.20839818821662</v>
       </c>
       <c r="F54" t="n">
-        <v>4.629959263108915</v>
+        <v>4.582879342090068</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.776464017344808</v>
+        <v>-7.434034836519463</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-10.02762924269057</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.60949079472186</v>
+        <v>-13.65209314816884</v>
       </c>
       <c r="F55" t="n">
-        <v>4.696546715361934</v>
+        <v>4.651090239895461</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.080846966112098</v>
+        <v>-7.737056185791213</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.994141539319749</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.30043389384008</v>
+        <v>-13.36348642432583</v>
       </c>
       <c r="F56" t="n">
-        <v>4.59662626007388</v>
+        <v>4.580444173761506</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.113878846181773</v>
+        <v>-7.767024466995924</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.948944289963668</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.98769805585977</v>
+        <v>-13.04658723404185</v>
       </c>
       <c r="F57" t="n">
-        <v>4.503539986869208</v>
+        <v>4.447190715438419</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.434889019558055</v>
+        <v>-8.069613770273897</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.897789399701038</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.53902483747382</v>
+        <v>-12.61151691830845</v>
       </c>
       <c r="F58" t="n">
-        <v>4.414695619785254</v>
+        <v>4.376492280093098</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.859079631629978</v>
+        <v>-8.516427881656323</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.840709681600014</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.21992614031243</v>
+        <v>-12.27987579502469</v>
       </c>
       <c r="F59" t="n">
-        <v>4.392176858897486</v>
+        <v>4.355754072391804</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.198733244252878</v>
+        <v>-8.839716115727066</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.785168374009992</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.88493338750118</v>
+        <v>-11.9538119927515</v>
       </c>
       <c r="F60" t="n">
-        <v>4.293303787836771</v>
+        <v>4.246669005114542</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.29864060723809</v>
+        <v>-8.966449607234974</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.731333849259041</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.72961939888979</v>
+        <v>-11.77933087277982</v>
       </c>
       <c r="F61" t="n">
-        <v>4.171074048506416</v>
+        <v>4.12574849606836</v>
       </c>
       <c r="G61" t="n">
-        <v>-9.678972004790232</v>
+        <v>-9.339763530463951</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.688628913740473</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.64102378555983</v>
+        <v>-11.67512923446252</v>
       </c>
       <c r="F62" t="n">
-        <v>4.06620470274419</v>
+        <v>4.020564935037934</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.880855314609647</v>
+        <v>-9.540939855929913</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.657320507219024</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.39801755251455</v>
+        <v>-11.41760363756577</v>
       </c>
       <c r="F63" t="n">
-        <v>4.141249782632964</v>
+        <v>4.091865616313973</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.10440638563212</v>
+        <v>-9.766991556795157</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.64621302986337</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.33948186650919</v>
+        <v>-11.32995067004041</v>
       </c>
       <c r="F64" t="n">
-        <v>4.037244528858293</v>
+        <v>3.997731958881963</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.29499103809913</v>
+        <v>-9.909540550135869</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.653113214109817</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.39970645958113</v>
+        <v>-11.39454809226149</v>
       </c>
       <c r="F65" t="n">
-        <v>4.046016371762248</v>
+        <v>4.013442722292035</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.17633549744456</v>
+        <v>-9.838554084128031</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.68367931294849</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.25351780605042</v>
+        <v>-11.22818420005168</v>
       </c>
       <c r="F66" t="n">
-        <v>4.061674765960953</v>
+        <v>4.022109826773256</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.35850179918434</v>
+        <v>-10.04140622435773</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.732874923488454</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.51548169361051</v>
+        <v>-11.48436128975573</v>
       </c>
       <c r="F67" t="n">
-        <v>3.769035612842692</v>
+        <v>3.719180123621399</v>
       </c>
       <c r="G67" t="n">
-        <v>-10.45998023851056</v>
+        <v>-10.12125617938942</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.80313580308626</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.51756336976235</v>
+        <v>-11.48144170622203</v>
       </c>
       <c r="F68" t="n">
-        <v>3.886368830910241</v>
+        <v>3.813130488813625</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.24508317966647</v>
+        <v>-9.91857423909666</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.8879906194404</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.46270662085552</v>
+        <v>-11.38345891175455</v>
       </c>
       <c r="F69" t="n">
-        <v>3.845835061312257</v>
+        <v>3.797498279220604</v>
       </c>
       <c r="G69" t="n">
-        <v>-10.29013379374485</v>
+        <v>-9.93525383291702</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.98728038764393</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.66032183994853</v>
+        <v>-11.61097695053807</v>
       </c>
       <c r="F70" t="n">
-        <v>3.620333237166367</v>
+        <v>3.59153017091457</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.3498608793088</v>
+        <v>-9.996512717913456</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.09349150232722</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.6236633919917</v>
+        <v>-11.55189138781335</v>
       </c>
       <c r="F71" t="n">
-        <v>3.529996347558457</v>
+        <v>3.497658359539394</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.35051549445089</v>
+        <v>-10.0068818217641</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.2025599492783</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.77656839688022</v>
+        <v>-11.71953832570166</v>
       </c>
       <c r="F72" t="n">
-        <v>3.564114888763995</v>
+        <v>3.513316753738098</v>
       </c>
       <c r="G72" t="n">
-        <v>-10.50082822337674</v>
+        <v>-10.13997817245309</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.30604787798271</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.1512962888161</v>
+        <v>-12.09427930994038</v>
       </c>
       <c r="F73" t="n">
-        <v>3.660814637552984</v>
+        <v>3.602082567005001</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.29789752932999</v>
+        <v>-9.954695902636983</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.39795833684659</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.45299531550083</v>
+        <v>-12.38343591050274</v>
       </c>
       <c r="F74" t="n">
-        <v>3.652749779002481</v>
+        <v>3.614467885493274</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.21405442193158</v>
+        <v>-9.873353425081339</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.47342016276464</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.77193690502812</v>
+        <v>-12.72875849025611</v>
       </c>
       <c r="F75" t="n">
-        <v>3.599306998802555</v>
+        <v>3.549477694186946</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.13378551320895</v>
+        <v>-9.799918698442097</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.52676481643868</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.00491443409664</v>
+        <v>-12.92901835452315</v>
       </c>
       <c r="F76" t="n">
-        <v>3.599935429338958</v>
+        <v>3.526199579734357</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.07352164322849</v>
+        <v>-9.738149213634834</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.55654948079809</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.45061569973752</v>
+        <v>-13.38350455537083</v>
       </c>
       <c r="F77" t="n">
-        <v>3.616929238427518</v>
+        <v>3.569796948197304</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.852366463626051</v>
+        <v>-9.535362534919338</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.55697750507691</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.20203532903555</v>
+        <v>-14.13543478447968</v>
       </c>
       <c r="F78" t="n">
-        <v>3.588964079557591</v>
+        <v>3.541046251156874</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.554948619970562</v>
+        <v>-9.23719843000187</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.52923316291111</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.79998698442286</v>
+        <v>-14.72691884226318</v>
       </c>
       <c r="F79" t="n">
-        <v>3.712948187468737</v>
+        <v>3.642799628842769</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.564898770130272</v>
+        <v>-9.226135434100611</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.46703705343343</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.18056713572899</v>
+        <v>-15.11158379205594</v>
       </c>
       <c r="F80" t="n">
-        <v>3.75112534255521</v>
+        <v>3.691686287653774</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.186321741158922</v>
+        <v>-8.851970511186922</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.37247623062829</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.74572257249778</v>
+        <v>-15.6775771362066</v>
       </c>
       <c r="F81" t="n">
-        <v>3.739865962111326</v>
+        <v>3.665344574336221</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.98909929115116</v>
+        <v>-8.663637734808692</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.2390572500461</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.58783258358045</v>
+        <v>-16.54135490849232</v>
       </c>
       <c r="F82" t="n">
-        <v>3.626329511867878</v>
+        <v>3.553195908193996</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.749248303090738</v>
+        <v>-8.452760012937009</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.06972389385723</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.54430385998559</v>
+        <v>-17.49210484855562</v>
       </c>
       <c r="F83" t="n">
-        <v>3.722086614852262</v>
+        <v>3.656520362220898</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.563835110246215</v>
+        <v>-8.256283824191227</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.859554650930416</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.47136982420821</v>
+        <v>-18.42024438161127</v>
       </c>
       <c r="F84" t="n">
-        <v>3.652435563734279</v>
+        <v>3.562805658479823</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.263471498451334</v>
+        <v>-7.973411528992894</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.613234120547595</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.48758127848014</v>
+        <v>-19.44747955487594</v>
       </c>
       <c r="F85" t="n">
-        <v>3.807396060168949</v>
+        <v>3.735754979019024</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.07661815229422</v>
+        <v>-7.820716000949842</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.330671101627631</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.66702756458272</v>
+        <v>-20.62995016293495</v>
       </c>
       <c r="F86" t="n">
-        <v>3.789826189755353</v>
+        <v>3.707135205007011</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.927405176807068</v>
+        <v>-7.680955668114416</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-9.019878063248584</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.86598138191947</v>
+        <v>-21.81012961799667</v>
       </c>
       <c r="F87" t="n">
-        <v>3.755786202366865</v>
+        <v>3.669586480456941</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.774107402833297</v>
+        <v>-7.518048143854819</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.686473976030175</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.27488336762613</v>
+        <v>-23.25130413020819</v>
       </c>
       <c r="F88" t="n">
-        <v>3.975841628530597</v>
+        <v>3.918549711295204</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.702963829191358</v>
+        <v>-7.448619661885146</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.340105852546168</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.76425064659805</v>
+        <v>-24.74046193233464</v>
       </c>
       <c r="F89" t="n">
-        <v>3.830045744085135</v>
+        <v>3.744343529683197</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.48589344807554</v>
+        <v>-7.27078691238598</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.989940005773703</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.38776166048629</v>
+        <v>-26.36326596186942</v>
       </c>
       <c r="F90" t="n">
-        <v>3.96850993893923</v>
+        <v>3.920539741327146</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.646810942303195</v>
+        <v>-7.422762363772737</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.642755508873822</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.09236639817619</v>
+        <v>-28.10900671508802</v>
       </c>
       <c r="F91" t="n">
-        <v>4.101841951079368</v>
+        <v>4.038841789804983</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.377921226539825</v>
+        <v>-7.16435958258559</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.306680939348906</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.04258273717686</v>
+        <v>-30.04387887515819</v>
       </c>
       <c r="F92" t="n">
-        <v>3.997155897556927</v>
+        <v>3.939026072939663</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.553017684745069</v>
+        <v>-7.35186754388479</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.981847260762451</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.87608119634354</v>
+        <v>-31.86098577116703</v>
       </c>
       <c r="F93" t="n">
-        <v>3.923734263220527</v>
+        <v>3.871574528699091</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.415928181689356</v>
+        <v>-7.16253975249059</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.67331874421215</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.85621344733756</v>
+        <v>-33.82862796525004</v>
       </c>
       <c r="F94" t="n">
-        <v>4.183721213051523</v>
+        <v>4.098464136946204</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.308243990816159</v>
+        <v>-7.109607572101491</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.376612988214686</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.95844451463351</v>
+        <v>-35.95311594737694</v>
       </c>
       <c r="F95" t="n">
-        <v>3.908494822712758</v>
+        <v>3.874978527437939</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.109293356833289</v>
+        <v>-6.912673152756247</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.098293072992444</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.20603942038115</v>
+        <v>-38.22392350606295</v>
       </c>
       <c r="F96" t="n">
-        <v>3.774455826219167</v>
+        <v>3.724233752518305</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.183238683283358</v>
+        <v>-6.99120078520092</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.835306264779622</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.17374707597838</v>
+        <v>-40.22289558084621</v>
       </c>
       <c r="F97" t="n">
-        <v>3.580715928767304</v>
+        <v>3.540208343775004</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.835926073498049</v>
+        <v>-6.659834600276834</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.60117922306203</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.72617006878992</v>
+        <v>-42.76826182242607</v>
       </c>
       <c r="F98" t="n">
-        <v>3.556704645355579</v>
+        <v>3.501847896448746</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.882560856220278</v>
+        <v>-6.699268616436113</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.396071669725541</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.85745295609166</v>
+        <v>-44.92087207105699</v>
       </c>
       <c r="F99" t="n">
-        <v>3.480455073605366</v>
+        <v>3.480062304520114</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.652005403177482</v>
+        <v>-6.497398398919539</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.242174865236126</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.13680978853333</v>
+        <v>-47.22189666470171</v>
       </c>
       <c r="F100" t="n">
-        <v>3.391270306647528</v>
+        <v>3.392317690874866</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.503577965860833</v>
+        <v>-6.408383831898643</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.13541314726595</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.47538310672812</v>
+        <v>-49.54114574390212</v>
       </c>
       <c r="F101" t="n">
-        <v>3.091849340657253</v>
+        <v>3.099154845642936</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.5552140082686</v>
+        <v>-6.506301164851912</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.109580438500328</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.8724659263226</v>
+        <v>-51.95623047990396</v>
       </c>
       <c r="F102" t="n">
-        <v>2.70408151509101</v>
+        <v>2.729532951815326</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.557086207574968</v>
+        <v>-6.450711246985943</v>
       </c>
     </row>
   </sheetData>
